--- a/cv32e40p/docs/VerifPlans/Simulation/xpulp_instruction_extensions/CV32E40P_xpulp-hwloop.xlsx
+++ b/cv32e40p/docs/VerifPlans/Simulation/xpulp_instruction_extensions/CV32E40P_xpulp-hwloop.xlsx
@@ -1,30 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmcconnell\Desktop\CV32E40P VPLANS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dolphinintegrationfr.sharepoint.com/sites/PANTHER/Documents partages/General/CV32E40P/Verification/v2_VerifPlans/Simulation/instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{3ECE4A6C-0109-4002-B083-2D5BD3140D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C44B04FE-7F70-4CA1-A0ED-A0C397784CF5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="38280" yWindow="3705" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="XPULP_HW_LOOP" sheetId="1" r:id="rId1"/>
+    <sheet name="DONOTDELETE" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E9F114E1-9D60-453F-B252-DD8D571A9612}</author>
+    <author>tc={0208F7CF-8131-46E6-BCC9-C925EAA4CDC2}</author>
+    <author>tc={76381A8A-380B-4DC0-B7E5-2F2710A749CD}</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{E9F114E1-9D60-453F-B252-DD8D571A9612}">
+      <text>
+        <t xml:space="preserve">[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Temporary names
+</t>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="1" shapeId="0" xr:uid="{0208F7CF-8131-46E6-BCC9-C925EAA4CDC2}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    For this, covers instructions met when lpcount0/1 &gt; 0 AND lpstart0/1 &lt; PC &lt; lpend0/1</t>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="2" shapeId="0" xr:uid="{76381A8A-380B-4DC0-B7E5-2F2710A749CD}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    are mapped into the CSR custom *read-only* address, from v1.2.0 spec, p42 (HWLoop constraints</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="116">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -32,22 +79,364 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>Verification Goal</t>
+  </si>
+  <si>
+    <t>Test Type</t>
+  </si>
+  <si>
+    <t>Coverage Method</t>
+  </si>
+  <si>
+    <t>Link to Coverage</t>
+  </si>
+  <si>
+    <t>Directed Self-Checking</t>
+  </si>
+  <si>
+    <t>Testcase</t>
+  </si>
+  <si>
+    <t>Test Coverage</t>
+  </si>
+  <si>
+    <t>Directed Non-Self-Checking</t>
+  </si>
+  <si>
+    <t>Assertion Coverage</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ENV capability, not specific test</t>
+  </si>
+  <si>
+    <t>Pass/Fail Criteria</t>
+  </si>
+  <si>
+    <t>Self Checking Test</t>
+  </si>
+  <si>
+    <t>RISC-V Compliance</t>
+  </si>
+  <si>
+    <t>Signature Check</t>
+  </si>
+  <si>
+    <t>OpenHW Compliance</t>
+  </si>
+  <si>
+    <t>Functional Coverage</t>
+  </si>
+  <si>
+    <t>Check against ISS</t>
+  </si>
+  <si>
+    <t>Check against RM</t>
+  </si>
+  <si>
+    <t>Code Coverage</t>
+  </si>
+  <si>
+    <t>Assertion Check</t>
+  </si>
+  <si>
+    <t>Constrained-Random</t>
+  </si>
+  <si>
+    <t>Any/All</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>CV32E40P User Manual - Chapter 12</t>
+  </si>
+  <si>
+    <t>Hardware Loops Regs saving in case of context switching</t>
+  </si>
+  <si>
+    <t>CV32E40P User Manual - Chapter 18.3</t>
+  </si>
+  <si>
     <t>Sub Feature</t>
   </si>
   <si>
     <t>Feature Description</t>
   </si>
   <si>
-    <t>Verification Goal</t>
-  </si>
-  <si>
-    <t>Pass/Fail Criteria</t>
-  </si>
-  <si>
-    <t>Test Type</t>
-  </si>
-  <si>
-    <t>Coverage Method</t>
+    <t xml:space="preserve">Hardware Loops </t>
+  </si>
+  <si>
+    <t>Hardware Loops Instructions</t>
+  </si>
+  <si>
+    <t>Register operands 
+All possible rs1 registers are used.</t>
+  </si>
+  <si>
+    <t>CV.SETUP</t>
+  </si>
+  <si>
+    <t>CV.SETUPI</t>
+  </si>
+  <si>
+    <t>Register operands 
+All possible rs1 registers are used for both loops (L value)</t>
+  </si>
+  <si>
+    <t>coverage:
+All bits of uimmL are toggled 
+for both loops (L value)</t>
+  </si>
+  <si>
+    <t>coverage:
+All bits of uimmS are toggled for both loops (L value) 
+All bits of uimmL are toggled  for both loops (L value)</t>
+  </si>
+  <si>
+    <t>HW Loop context should be saved in case of a context switchig event occuring</t>
+  </si>
+  <si>
+    <t>CV.STARTI</t>
+  </si>
+  <si>
+    <t>CV.START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coverage:
+All bits of rs1 are toggled </t>
+  </si>
+  <si>
+    <t>coverage:
+All bits of uimmL are toggled</t>
+  </si>
+  <si>
+    <t>CV.END</t>
+  </si>
+  <si>
+    <t>CV.ENDI</t>
+  </si>
+  <si>
+    <t>CV.COUNTI</t>
+  </si>
+  <si>
+    <t>CV.COUNT</t>
+  </si>
+  <si>
+    <t>cv.count  L, rs1
+lpcount[L] = op1
+Loads the lpcount[L] CSR register with the given value</t>
+  </si>
+  <si>
+    <t>cv.counti  L, uimmL
+lpcount[L] = uimmL
+Loads the lpcount[L] CSR register with the given value</t>
+  </si>
+  <si>
+    <t>input operands: 
+uimmL value is +ve, max and zero
+rs1 value are min value (3), +ve and max value for both loops (L value)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input operands: 
+uimmL value is any +ve, max and zero for both loops (L value) </t>
+  </si>
+  <si>
+    <t>cv.start  L, rs1
+lpstart[L] = PC + rs1 
+Loads the lpstart[L] CSR register with current PC value plus an unsigned integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cv.end  L, rs1
+lpend[L] = PC + rs1 
+Loads the lpend[L] CSR register with the current PC value plus an unsigned integer </t>
+  </si>
+  <si>
+    <t>Demonstrates that both HWLoop can be used indepentently without nesting, and in case of nesting, that loop #0 has higher priority than loop #1</t>
+  </si>
+  <si>
+    <t>Loop number 0 has higher priority than loop number 1 in a nested loop configuration, meaning that loop 0 represents the inner loop.</t>
+  </si>
+  <si>
+    <t>Hardware Loops nesting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardware Loops Debug mode </t>
+  </si>
+  <si>
+    <t>No privileged instructions except for ebreak. The core can enter debug mode while executing instructions inside a hardware loop</t>
+  </si>
+  <si>
+    <t>No specific limitations of the moment when context switching event can occur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV32E40P User Manual - Chapter 13.2.2 </t>
+  </si>
+  <si>
+    <t>Hardware Loops CSRs</t>
+  </si>
+  <si>
+    <t>0xCC0: lpstart0, 32-bit RW register, start address of HWloop0
+0xCC4: lpstart1, 32-bit RW register, start address of HWloop1
+0xCC1: lpend0, 32-bit RW register, end address of HWloop0
+0xCC5: lpend1, 32-bit RW register, end address of HWloop1
+0xCC2: lpcount0, 32-bit RW register, number of iterations of HWloop0
+0xCC6: lpcount1, 32-bit RW register, number of iterations of HWloop1
+number of instructions for loop 0 (nbInst0)  is (lpend0 - lpstart0)/4
+number of instructions for loop 1 (nbInst1) is (lpend1 - lpstart1)/4</t>
+  </si>
+  <si>
+    <t>cv.setupi    L, uimmL, uimmS
+lpstart[L] = PC + 4
+lpend[L] = PC + (uimmS &lt;&lt; 2)
+lpcount[L] = uimmL</t>
+  </si>
+  <si>
+    <t>cv.setup    L, rs1, uimmL
+lpstart[L] = PC + 4
+lpend[L] = PC + (uimmL &lt;&lt; 2)
+lpcount[L] = rs1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coverage: 
+All bits of lpstart0 are toggled
+All bits of lpstart1 are toggled
+All bits of lpend0 are toggled
+All bits of lpend1 are toggled
+All bits of  lpcount0 are toggled
+All bits of lpcount1 are toggled </t>
+  </si>
+  <si>
+    <t>Hardware Loops Instructions limitations</t>
+  </si>
+  <si>
+    <t>All instructions except RVC, jumps, branch, memory ordering, mret, dret, ecall, wfi are allowed inside HWLoops</t>
+  </si>
+  <si>
+    <t>lpstart0 have been read 
+lpstart1 have been read
+lpend0 have been read
+lpend1 have been read
+lpcount0 have been read
+lpcount1 have been read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cv.endi  L, uimmL 
+lpend[L] = PC + (uimmL &lt;&lt; 2) 
+Loads the lpend[L] CSR register with the current PC value plus an unsigned integer </t>
+  </si>
+  <si>
+    <t>cv.starti  L, uimmL
+lpstart[L] = PC + (uimmL &lt;&lt; 2) 
+Loads the lpstart[L] CSR register with current PC value plus an unsigned integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input operands: 
+uimmL value is any +ve, max and 1 for both loops (L value) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">input operands: 
+rs1 value is any +ve and 1 for both loops (L value) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">input operands: 
+uimmL value is any +ve, max and 1 for both loops (L value) 
+</t>
+  </si>
+  <si>
+    <t>input operands: 
+uimmL value is any +ve, max and 1 for both loops (L value) 
+uimmS value is 3 (min), +ve, max for both loops (L value)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coverage: 
+All allowed multicycle instructions have been executed while one HWLoop is active
+All allowed one-cycle instructions have been executed while one HWLoop is active
+</t>
+  </si>
+  <si>
+    <t>Demonstrate that HWLoop operation can be resumed after context switching if registers are correctly saved and restored when context switching occurs</t>
+  </si>
+  <si>
+    <t>RISC-V External Debug Support Version 0.13.2</t>
+  </si>
+  <si>
+    <t>4.4 Single step</t>
+  </si>
+  <si>
+    <t>Debug mode</t>
+  </si>
+  <si>
+    <t>Single stepping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all HWLoop instructions has been exectued in debug mode </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Enter in debug mode inside loop #0 and loop #1 in a non-nested configuration, single steps some instructions inside the loop, and then exit debug while in the loop
+- Enter in debug mode in nested configuration, outside inner loop, execute the first part of inner loop including setting instructions in single stepping, and exit debug mode while being in inner loop
+- Enter in debug mode in nested configuration, outside inner loop, execute the first part of inner loop including setting instructions in single stepping, and exit debug mode after having completed whole inner loop
+- In configurations described above, debug code can be executed, and the loop operations must resume normally afterwards </t>
+  </si>
+  <si>
+    <t>lpstart0 have been written 
+lpstart1 have been written
+lpend0 have been written
+lpend1 have been written
+lpcount0 have been written
+lpcount1 have been written</t>
+  </si>
+  <si>
+    <t>HWLoop CSR Registers are readable using Zicsr read instructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illegal Exception Instruction is raised when using Zicsr write instructions on HWLoop registers </t>
+  </si>
+  <si>
+    <t>hardware loop feature could be used in interrupt routine/handler</t>
+  </si>
+  <si>
+    <t>coverage :
+For both loops : 
+- An interrupt has occured before the very first instruction of the inner loop have been executed
+-An interrupt has occured after the first iteration of the inner loop and just before jumping back to the next iteration
+- An interrupt has occured just after jumping back to the next iteration for inner loop
+- An interrupt has occured before the very last instruction of the inner loop have been executed 
+- An interrupt has occured after the very last instruction of the inner loop have been executed 
+Apply all the above for a nested configuration and non nested configuration</t>
+  </si>
+  <si>
+    <t>Demonstrate that HWLoop can be interrupted, and another nested HWLoops can be executed in the instruction routine</t>
+  </si>
+  <si>
+    <t>hwloop_interrupt_test
+hwloop_debug_test</t>
+  </si>
+  <si>
+    <t>hwloop_interrupt_test</t>
+  </si>
+  <si>
+    <t>hwloop_directed_test</t>
+  </si>
+  <si>
+    <t>cg_hwloop_interrupts</t>
+  </si>
+  <si>
+    <t>cg_hwloop_instr_in_the_loop</t>
+  </si>
+  <si>
+    <t>cg_hwloop_in_debug</t>
+  </si>
+  <si>
+    <t>cg_hwloop_csr_read</t>
+  </si>
+  <si>
+    <t>toggle</t>
+  </si>
+  <si>
+    <t>Below are plans for CV32E40P v1</t>
   </si>
   <si>
     <t>CV32E40P: User Manual
@@ -55,77 +444,75 @@
 (16 July, 2020)</t>
   </si>
   <si>
-    <t>Directed Self-Checking</t>
-  </si>
-  <si>
-    <t>Self Checking Test</t>
-  </si>
-  <si>
     <t>XPULP Hardware Loops</t>
   </si>
   <si>
     <t>lp.starti L, uimmL</t>
-  </si>
-  <si>
-    <t>lp.endi L, uimmL</t>
-  </si>
-  <si>
-    <t>lp.count L, rs1</t>
-  </si>
-  <si>
-    <t>lp.counti L, uimmL</t>
-  </si>
-  <si>
-    <t>lp.setup L, rs1, uimmL</t>
-  </si>
-  <si>
-    <t>lp.setupi L, uimmL, uimmS</t>
   </si>
   <si>
     <t>Hardware loop L starts at PC + (uimmL &lt;&lt;1 )
 lpstart[L] = PC + (uimmL &lt;&lt; 1)</t>
   </si>
   <si>
+    <t>Limited coverage of a variety of loop starting distances</t>
+  </si>
+  <si>
+    <t>lp.endi L, uimmL</t>
+  </si>
+  <si>
     <t>Hardware loop L ends at PC + (uimmL &lt;&lt;1 )
 lpend[L] = PC + (uimmL &lt;&lt; 1)</t>
   </si>
   <si>
+    <t>Limited coverage of a variety of loop ending distances</t>
+  </si>
+  <si>
+    <t>lp.count L, rs1</t>
+  </si>
+  <si>
     <t>Sets the number of loops hardware loop L will make
 lpcount[L] = rs1</t>
   </si>
   <si>
+    <t>Limited coverage of a variety of loop counts</t>
+  </si>
+  <si>
+    <t>lp.counti L, uimmL</t>
+  </si>
+  <si>
     <t>Sets the number of loops hardware loop L will make
 lpcount[L] = uimmL</t>
   </si>
   <si>
+    <t>lp.setup L, rs1, uimmL</t>
+  </si>
+  <si>
     <t>Sets up hardware loop L. The number of loops is defined by a register
 lpstart[L] = PC + 4; lpend[L] = PC + (uimmL &lt;&lt; 1); lpcount[L] = rs1</t>
   </si>
   <si>
+    <t>Limited coverage of a variety of loop lengths and iteration counts</t>
+  </si>
+  <si>
+    <t>lp.setupi L, uimmL, uimmS</t>
+  </si>
+  <si>
     <t>Sets up hardware loop L. The number of loops is defined by an immediate
 lpstart[L] = PC + 4; lpend[L] = PC + (uimmS &lt;&lt; 1); lpcount[L] = uimmL</t>
-  </si>
-  <si>
-    <t>Limited coverage of a variety of loop starting distances</t>
-  </si>
-  <si>
-    <t>Limited coverage of a variety of loop ending distances</t>
-  </si>
-  <si>
-    <t>Limited coverage of a variety of loop counts</t>
-  </si>
-  <si>
-    <t>Limited coverage of a variety of loop lengths and iteration counts</t>
-  </si>
-  <si>
-    <t>Test Coverage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,9 +524,24 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -148,13 +550,26 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,32 +581,148 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{1A76336B-CC1C-4903-871B-5ABE5323532D}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{16F0009A-1B89-4140-8012-E128001AE7C5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC5E0B4"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFED7D31"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF70AD47"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -203,8 +734,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Xavier Aubert" id="{1FBB04AA-9F0A-4D19-98ED-6F16F4610ABA}" userId="S::xavier.aubert@dolphin.fr::db9aa7a3-bc41-42e8-89c7-c757ca35a621" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -220,7 +757,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -232,7 +769,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -279,6 +816,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -314,6 +868,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -464,260 +1035,1292 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I1" dT="2023-02-01T08:58:59.04" personId="{1FBB04AA-9F0A-4D19-98ED-6F16F4610ABA}" id="{E9F114E1-9D60-453F-B252-DD8D571A9612}">
+    <text xml:space="preserve">Temporary names
+</text>
+  </threadedComment>
+  <threadedComment ref="E7" dT="2023-01-10T17:25:21.27" personId="{1FBB04AA-9F0A-4D19-98ED-6F16F4610ABA}" id="{0208F7CF-8131-46E6-BCC9-C925EAA4CDC2}">
+    <text>For this, covers instructions met when lpcount0/1 &gt; 0 AND lpstart0/1 &lt; PC &lt; lpend0/1</text>
+  </threadedComment>
+  <threadedComment ref="D9" dT="2023-01-10T14:24:00.68" personId="{1FBB04AA-9F0A-4D19-98ED-6F16F4610ABA}" id="{76381A8A-380B-4DC0-B7E5-2F2710A749CD}">
+    <text>are mapped into the CSR custom *read-only* address, from v1.2.0 spec, p42 (HWLoop constraints</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="21.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="63.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" style="2" customWidth="1"/>
+    <col min="11" max="1024" width="17" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="I35" s="19"/>
+    </row>
+    <row r="36" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="I36" s="19"/>
+    </row>
+    <row r="37" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="17"/>
+      <c r="I37" s="19"/>
+    </row>
+    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H38" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B12:B29"/>
+    <mergeCell ref="A12:A29"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>DONOTDELETE!$E$3:$E$7</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>H30:H76 H2 H11 H4:H6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>DONOTDELETE!$C$3:$C$10</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>G30:G91 G8 G10:G11 G2:G6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:E10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="60">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="60" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFCF9BE3DDC69D46817A851BEC5550B1" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="6f429ff05de3a495de36a912eeee1367">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbd820e2-9c8a-4c01-9a9c-6b4c26777899" xmlns:ns3="51aa521f-7cbd-47c5-afee-4a8147a04eed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dba9ee4a9862521e056f2186065b8ec" ns2:_="" ns3:_="">
+    <xsd:import namespace="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
+    <xsd:import namespace="51aa521f-7cbd-47c5-afee-4a8147a04eed"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cbd820e2-9c8a-4c01-9a9c-6b4c26777899" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="68bd86b6-d639-4884-9680-62e746fab3da" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="21" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="51aa521f-7cbd-47c5-afee-4a8147a04eed" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{67132edb-7ad2-4046-b569-46a3488a100c}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="51aa521f-7cbd-47c5-afee-4a8147a04eed">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC35B777-21E7-4464-BE3C-C8FBF483BFD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
+    <ds:schemaRef ds:uri="51aa521f-7cbd-47c5-afee-4a8147a04eed"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B37AA972-CFD5-43B9-BF4E-74110B7D8E6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/cv32e40p/docs/VerifPlans/Simulation/xpulp_instruction_extensions/CV32E40P_xpulp-hwloop.xlsx
+++ b/cv32e40p/docs/VerifPlans/Simulation/xpulp_instruction_extensions/CV32E40P_xpulp-hwloop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dolphinintegrationfr.sharepoint.com/sites/PANTHER/Documents partages/General/CV32E40P/Verification/v2_VerifPlans/Simulation/instructions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\git_repos\corev-v-verif\cv32e40p\docs\VerifPlans\Simulation\xpulp_instruction_extensions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{3ECE4A6C-0109-4002-B083-2D5BD3140D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C44B04FE-7F70-4CA1-A0ED-A0C397784CF5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F6C5AED-0773-42DD-A212-C22DF079C416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="3705" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="E7" authorId="1" shapeId="0" xr:uid="{0208F7CF-8131-46E6-BCC9-C925EAA4CDC2}">
+    <comment ref="E9" authorId="1" shapeId="0" xr:uid="{0208F7CF-8131-46E6-BCC9-C925EAA4CDC2}">
       <text>
         <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
@@ -58,7 +58,7 @@
     For this, covers instructions met when lpcount0/1 &gt; 0 AND lpstart0/1 &lt; PC &lt; lpend0/1</t>
       </text>
     </comment>
-    <comment ref="D9" authorId="2" shapeId="0" xr:uid="{76381A8A-380B-4DC0-B7E5-2F2710A749CD}">
+    <comment ref="D11" authorId="2" shapeId="0" xr:uid="{76381A8A-380B-4DC0-B7E5-2F2710A749CD}">
       <text>
         <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="119">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -398,16 +398,6 @@
     <t>hardware loop feature could be used in interrupt routine/handler</t>
   </si>
   <si>
-    <t>coverage :
-For both loops : 
-- An interrupt has occured before the very first instruction of the inner loop have been executed
--An interrupt has occured after the first iteration of the inner loop and just before jumping back to the next iteration
-- An interrupt has occured just after jumping back to the next iteration for inner loop
-- An interrupt has occured before the very last instruction of the inner loop have been executed 
-- An interrupt has occured after the very last instruction of the inner loop have been executed 
-Apply all the above for a nested configuration and non nested configuration</t>
-  </si>
-  <si>
     <t>Demonstrate that HWLoop can be interrupted, and another nested HWLoops can be executed in the instruction routine</t>
   </si>
   <si>
@@ -499,6 +489,26 @@
   <si>
     <t>Sets up hardware loop L. The number of loops is defined by an immediate
 lpstart[L] = PC + 4; lpend[L] = PC + (uimmS &lt;&lt; 1); lpcount[L] = uimmL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coverage :
+For both loops in a nested configuration and non-nested configuration : 
+- An interrupt has occured before the very first instruction of the loop have been executed
+-An interrupt has occured after the last instruction of the loop, before getting back to the start of the loop
+- An interrupt has occured just after jumping back to the start of the loop 
+- An interrupt has occured before the very last instruction of the loop have been executed (last iteration)
+For loops in a nested configuration: 
+- An interrupt has occured after the last instruction, last iteration of the inner loop, and before executing next outer loop instruction
+</t>
+  </si>
+  <si>
+    <t>hwloop_debug_test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter/exit debug mode for every instruction of the loop, in both nested/non-nested configurations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An interrupt occurs for every instruction of the loop, in both nested/non-nested configurations </t>
   </si>
 </sst>
 </file>
@@ -622,15 +632,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -646,6 +647,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1041,10 +1051,10 @@
     <text xml:space="preserve">Temporary names
 </text>
   </threadedComment>
-  <threadedComment ref="E7" dT="2023-01-10T17:25:21.27" personId="{1FBB04AA-9F0A-4D19-98ED-6F16F4610ABA}" id="{0208F7CF-8131-46E6-BCC9-C925EAA4CDC2}">
+  <threadedComment ref="E9" dT="2023-01-10T17:25:21.27" personId="{1FBB04AA-9F0A-4D19-98ED-6F16F4610ABA}" id="{0208F7CF-8131-46E6-BCC9-C925EAA4CDC2}">
     <text>For this, covers instructions met when lpcount0/1 &gt; 0 AND lpstart0/1 &lt; PC &lt; lpend0/1</text>
   </threadedComment>
-  <threadedComment ref="D9" dT="2023-01-10T14:24:00.68" personId="{1FBB04AA-9F0A-4D19-98ED-6F16F4610ABA}" id="{76381A8A-380B-4DC0-B7E5-2F2710A749CD}">
+  <threadedComment ref="D11" dT="2023-01-10T14:24:00.68" personId="{1FBB04AA-9F0A-4D19-98ED-6F16F4610ABA}" id="{76381A8A-380B-4DC0-B7E5-2F2710A749CD}">
     <text>are mapped into the CSR custom *read-only* address, from v1.2.0 spec, p42 (HWLoop constraints</text>
   </threadedComment>
 </ThreadedComments>
@@ -1052,12 +1062,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ43"/>
+  <dimension ref="A1:AMJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,7 +1075,7 @@
     <col min="1" max="1" width="22.42578125" style="1" customWidth="1"/>
     <col min="2" max="3" width="21.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="51.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="63.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="70.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.140625" style="1" customWidth="1"/>
@@ -1103,14 +1113,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1129,18 +1139,18 @@
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19" t="s">
         <v>59</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>20</v>
@@ -1152,18 +1162,16 @@
         <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="1" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>20</v>
@@ -1175,20 +1183,18 @@
         <v>8</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>20</v>
@@ -1200,20 +1206,20 @@
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>54</v>
+      <c r="B6" s="21"/>
+      <c r="C6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>20</v>
@@ -1225,49 +1231,41 @@
         <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>75</v>
+      <c r="B7" s="21"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>18</v>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>20</v>
@@ -1275,28 +1273,24 @@
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>18</v>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="255" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>61</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>20</v>
@@ -1308,18 +1302,24 @@
         <v>18</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>20</v>
@@ -1331,87 +1331,99 @@
         <v>18</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="1" t="s">
+    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="10" t="s">
-        <v>43</v>
+      <c r="I12" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>52</v>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>20</v>
@@ -1424,12 +1436,12 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>20</v>
@@ -1441,17 +1453,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>69</v>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>20</v>
@@ -1464,12 +1476,12 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="13"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>20</v>
@@ -1481,17 +1493,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>53</v>
+    <row r="18" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>20</v>
@@ -1504,12 +1516,12 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="13"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>20</v>
@@ -1521,17 +1533,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>49</v>
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>20</v>
@@ -1544,12 +1556,12 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>20</v>
@@ -1561,17 +1573,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>48</v>
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>20</v>
@@ -1584,12 +1596,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="10" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>20</v>
@@ -1602,12 +1614,16 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="13"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="E24" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>20</v>
@@ -1619,17 +1635,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>63</v>
-      </c>
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>20</v>
@@ -1641,13 +1653,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13"/>
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>20</v>
@@ -1659,17 +1671,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>64</v>
+    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>20</v>
@@ -1681,13 +1693,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="13"/>
+    <row r="28" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>20</v>
@@ -1699,13 +1711,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="13"/>
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="E29" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>20</v>
@@ -1717,203 +1733,242 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="I35" s="19"/>
-    </row>
-    <row r="36" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="I38" s="16"/>
+    </row>
+    <row r="39" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="14"/>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="I36" s="19"/>
-    </row>
-    <row r="37" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="17"/>
-      <c r="I37" s="19"/>
-    </row>
-    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="B40" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="C40" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="D40" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="E40" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="F40" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="D41" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G41" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="20" t="s">
+      <c r="H41" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="21" t="s">
+      <c r="C42" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="D42" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G42" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="20" t="s">
+      <c r="H42" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="21" t="s">
+      <c r="C43" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" s="20" t="s">
+      <c r="F43" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="20" t="s">
+      <c r="G43" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="20" t="s">
+      <c r="H43" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+    <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="21" t="s">
+      <c r="C44" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="20" t="s">
+      <c r="D44" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G44" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="20" t="s">
+      <c r="H44" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" s="21" t="s">
+      <c r="C45" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F42" s="20" t="s">
+      <c r="F45" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G45" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="20" t="s">
+      <c r="H45" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B12:B29"/>
-    <mergeCell ref="A12:A29"/>
+  <mergeCells count="26">
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B14:B31"/>
+    <mergeCell ref="A14:A31"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C25:C26"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1928,7 +1983,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>H30:H76 H2 H11 H4:H6</xm:sqref>
+          <xm:sqref>H32:H78 H2 H13 H4:H8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
@@ -1937,7 +1992,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>G30:G91 G8 G10:G11 G2:G6</xm:sqref>
+          <xm:sqref>G32:G93 G10 G12:G13 G2:G8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2059,6 +2114,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFCF9BE3DDC69D46817A851BEC5550B1" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="6f429ff05de3a495de36a912eeee1367">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbd820e2-9c8a-4c01-9a9c-6b4c26777899" xmlns:ns3="51aa521f-7cbd-47c5-afee-4a8147a04eed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dba9ee4a9862521e056f2186065b8ec" ns2:_="" ns3:_="">
     <xsd:import namespace="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
@@ -2289,16 +2353,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B37AA972-CFD5-43B9-BF4E-74110B7D8E6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC35B777-21E7-4464-BE3C-C8FBF483BFD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2315,12 +2378,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B37AA972-CFD5-43B9-BF4E-74110B7D8E6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>